--- a/Access_Desktop.suite/Resources/Regression_testdata.xlsx
+++ b/Access_Desktop.suite/Resources/Regression_testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suganthinatrajan/Eggplant_Testcases/Access_Desktop.suite/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D07DA11-9A21-714B-AD66-142300AED925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F769C4-AEEF-DB47-B2EF-1BB269939DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19320" activeTab="2" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19320" activeTab="1" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="JS" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="CR" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="425">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -1308,13 +1309,16 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1390,6 +1394,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1541,7 +1553,7 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
@@ -1603,6 +1615,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Accent1" xfId="9" builtinId="29"/>
@@ -1929,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4FE13A-C238-440C-BD75-766A4748C928}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F18"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1939,7 +1960,7 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="28"/>
+    <col min="5" max="5" width="8.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1979,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>126</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1999,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2019,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2039,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2059,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2069,17 +2090,17 @@
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="24">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
+      <c r="E7" s="34">
+        <v>2</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2089,17 +2110,17 @@
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="24">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
+      <c r="E8" s="34">
+        <v>2</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2118,8 +2139,8 @@
       <c r="E9" s="24">
         <v>2</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
+      <c r="F9" s="33" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2138,8 +2159,8 @@
       <c r="E10" s="24">
         <v>2</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>37</v>
+      <c r="F10" s="33" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2158,8 +2179,8 @@
       <c r="E11" s="24">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
+      <c r="F11" s="33" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2178,8 +2199,8 @@
       <c r="E12" s="24">
         <v>1</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>37</v>
+      <c r="F12" s="33" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2199,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2219,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2239,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2259,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>37</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2279,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>37</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2299,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2319,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2563,22 +2584,22 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="25">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="36">
+        <v>1</v>
+      </c>
+      <c r="F32" s="35" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2803,7 +2824,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="37" t="s">
         <v>73</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3492,8 +3513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D738776A-5825-42F9-9F09-6439114E8738}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3562,188 +3583,78 @@
         <v>191</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="13">
-        <v>3</v>
-      </c>
-      <c r="E3" s="13">
-        <v>2</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="13">
-        <v>4</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="13">
-        <v>5</v>
-      </c>
-      <c r="E5" s="13">
-        <v>2</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>423</v>
-      </c>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="13">
-        <v>6</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>423</v>
-      </c>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="13">
-        <v>7</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>423</v>
-      </c>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="13">
-        <v>8</v>
-      </c>
-      <c r="E8" s="13">
-        <v>2</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>423</v>
-      </c>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
       <c r="N9" s="7" t="s">
         <v>95</v>
       </c>
@@ -3755,442 +3666,174 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="15">
-        <v>2</v>
-      </c>
-      <c r="E10" s="15">
-        <v>2</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>423</v>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="15">
-        <v>3</v>
-      </c>
-      <c r="E11" s="15">
-        <v>2</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>423</v>
-      </c>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="15">
-        <v>4</v>
-      </c>
-      <c r="E12" s="15">
-        <v>2</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>423</v>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D13" s="15">
-        <v>5</v>
-      </c>
-      <c r="E13" s="15">
-        <v>2</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>423</v>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14" s="15">
-        <v>6</v>
-      </c>
-      <c r="E14" s="15">
-        <v>2</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>423</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" s="15">
-        <v>7</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>423</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="15">
-        <v>8</v>
-      </c>
-      <c r="E16" s="15">
-        <v>2</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>423</v>
-      </c>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="15">
-        <v>1</v>
-      </c>
-      <c r="E17" s="15">
-        <v>2</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="12">
-        <v>2</v>
-      </c>
-      <c r="E18" s="12">
-        <v>2</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>126</v>
-      </c>
+      <c r="A18" s="12"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="12">
-        <v>3</v>
-      </c>
-      <c r="E19" s="12">
-        <v>2</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>126</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="12">
-        <v>4</v>
-      </c>
-      <c r="E20" s="12">
-        <v>2</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>126</v>
-      </c>
+      <c r="A20" s="12"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="12">
-        <v>5</v>
-      </c>
-      <c r="E21" s="12">
-        <v>2</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>126</v>
-      </c>
+      <c r="A21" s="12"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="12">
-        <v>6</v>
-      </c>
-      <c r="E22" s="12">
-        <v>2</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>126</v>
-      </c>
+      <c r="A22" s="12"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="12">
-        <v>7</v>
-      </c>
-      <c r="E23" s="12">
-        <v>2</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>126</v>
-      </c>
+      <c r="A23" s="12"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="12">
-        <v>8</v>
-      </c>
-      <c r="E24" s="12">
-        <v>2</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>126</v>
-      </c>
+      <c r="A24" s="12"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" s="12">
-        <v>9</v>
-      </c>
-      <c r="E25" s="12">
-        <v>2</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>126</v>
-      </c>
+      <c r="A25" s="12"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="A26" s="12"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="12">
-        <v>1</v>
-      </c>
-      <c r="E26" s="12">
-        <v>2</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>126</v>
-      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
       <c r="N26" s="7" t="s">
         <v>95</v>
       </c>
@@ -4202,236 +3845,94 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="9">
-        <v>2</v>
-      </c>
-      <c r="E27" s="9">
-        <v>2</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="9">
-        <v>3</v>
-      </c>
-      <c r="E28" s="9">
-        <v>2</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="9">
-        <v>4</v>
-      </c>
-      <c r="E29" s="9">
-        <v>2</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="9">
-        <v>5</v>
-      </c>
-      <c r="E30" s="9">
-        <v>2</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="9">
-        <v>6</v>
-      </c>
-      <c r="E31" s="9">
-        <v>2</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="9">
-        <v>7</v>
-      </c>
-      <c r="E32" s="9">
-        <v>2</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="9">
-        <v>8</v>
-      </c>
-      <c r="E33" s="9">
-        <v>2</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="9">
-        <v>9</v>
-      </c>
-      <c r="E34" s="9">
-        <v>2</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="9">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9">
-        <v>2</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4442,9 +3943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27FFD82-9FC1-45FF-A306-3D9B749B3363}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61:F80"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5673,7 +5174,9 @@
       <c r="E61" s="8">
         <v>2</v>
       </c>
-      <c r="F61" s="8"/>
+      <c r="F61" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
@@ -5691,7 +5194,9 @@
       <c r="E62" s="8">
         <v>2</v>
       </c>
-      <c r="F62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
@@ -5709,7 +5214,9 @@
       <c r="E63" s="8">
         <v>2</v>
       </c>
-      <c r="F63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
@@ -5727,7 +5234,9 @@
       <c r="E64" s="8">
         <v>2</v>
       </c>
-      <c r="F64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
@@ -5745,7 +5254,9 @@
       <c r="E65" s="8">
         <v>2</v>
       </c>
-      <c r="F65" s="8"/>
+      <c r="F65" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
@@ -5763,7 +5274,9 @@
       <c r="E66" s="8">
         <v>2</v>
       </c>
-      <c r="F66" s="8"/>
+      <c r="F66" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
@@ -5781,7 +5294,9 @@
       <c r="E67" s="8">
         <v>2</v>
       </c>
-      <c r="F67" s="8"/>
+      <c r="F67" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
@@ -5799,7 +5314,9 @@
       <c r="E68" s="8">
         <v>2</v>
       </c>
-      <c r="F68" s="8"/>
+      <c r="F68" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="32" t="s">
@@ -5817,7 +5334,9 @@
       <c r="E69" s="8">
         <v>2</v>
       </c>
-      <c r="F69" s="8"/>
+      <c r="F69" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
@@ -5835,7 +5354,9 @@
       <c r="E70" s="8">
         <v>1</v>
       </c>
-      <c r="F70" s="8"/>
+      <c r="F70" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
@@ -5853,7 +5374,9 @@
       <c r="E71" s="8">
         <v>1</v>
       </c>
-      <c r="F71" s="8"/>
+      <c r="F71" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
@@ -5871,7 +5394,9 @@
       <c r="E72" s="8">
         <v>1</v>
       </c>
-      <c r="F72" s="8"/>
+      <c r="F72" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
@@ -5889,7 +5414,9 @@
       <c r="E73" s="8">
         <v>1</v>
       </c>
-      <c r="F73" s="8"/>
+      <c r="F73" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
@@ -5907,7 +5434,9 @@
       <c r="E74" s="8">
         <v>1</v>
       </c>
-      <c r="F74" s="8"/>
+      <c r="F74" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
@@ -5925,7 +5454,9 @@
       <c r="E75" s="8">
         <v>1</v>
       </c>
-      <c r="F75" s="8"/>
+      <c r="F75" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
@@ -5943,7 +5474,9 @@
       <c r="E76" s="8">
         <v>1</v>
       </c>
-      <c r="F76" s="8"/>
+      <c r="F76" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
@@ -5961,7 +5494,9 @@
       <c r="E77" s="8">
         <v>1</v>
       </c>
-      <c r="F77" s="8"/>
+      <c r="F77" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
@@ -5979,7 +5514,9 @@
       <c r="E78" s="8">
         <v>1</v>
       </c>
-      <c r="F78" s="8"/>
+      <c r="F78" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
@@ -5997,7 +5534,9 @@
       <c r="E79" s="8">
         <v>1</v>
       </c>
-      <c r="F79" s="8"/>
+      <c r="F79" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
@@ -6015,7 +5554,9 @@
       <c r="E80" s="8">
         <v>1</v>
       </c>
-      <c r="F80" s="8"/>
+      <c r="F80" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8702,4 +8243,954 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5920402C-1FB9-A943-A890-6C76360D8B3B}">
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="62.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="62.83203125" style="7"/>
+    <col min="14" max="14" width="23.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="62.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="13">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="13">
+        <v>4</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="13">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="13">
+        <v>6</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="13">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="13">
+        <v>8</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="15">
+        <v>2</v>
+      </c>
+      <c r="E10" s="15">
+        <v>2</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="15">
+        <v>3</v>
+      </c>
+      <c r="E11" s="15">
+        <v>2</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4</v>
+      </c>
+      <c r="E12" s="15">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="15">
+        <v>5</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="15">
+        <v>6</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="15">
+        <v>7</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="15">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15">
+        <v>2</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2</v>
+      </c>
+      <c r="E18" s="12">
+        <v>2</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="12">
+        <v>3</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="12">
+        <v>4</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="12">
+        <v>5</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="12">
+        <v>6</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="12">
+        <v>7</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="12">
+        <v>8</v>
+      </c>
+      <c r="E24" s="12">
+        <v>2</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="12">
+        <v>9</v>
+      </c>
+      <c r="E25" s="12">
+        <v>2</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="9">
+        <v>3</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="9">
+        <v>4</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="9">
+        <v>5</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="9">
+        <v>6</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="9">
+        <v>7</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="9">
+        <v>8</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="9">
+        <v>9</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Access_Desktop.suite/Resources/Regression_testdata.xlsx
+++ b/Access_Desktop.suite/Resources/Regression_testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suganthinatrajan/Eggplant_Testcases/Access_Desktop.suite/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F769C4-AEEF-DB47-B2EF-1BB269939DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B913A23D-01CA-D04A-9D87-6C97096DBFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19320" activeTab="1" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19320" activeTab="2" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="JS" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="425">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -1318,7 +1318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1402,6 +1402,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1553,7 +1561,7 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
@@ -1624,6 +1632,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Accent1" xfId="9" builtinId="29"/>
@@ -3513,8 +3532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D738776A-5825-42F9-9F09-6439114E8738}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3583,78 +3602,188 @@
         <v>191</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="13">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="13">
+        <v>4</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="13">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="13">
+        <v>6</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="13">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="A8" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="13">
+        <v>8</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38">
+        <v>1</v>
+      </c>
+      <c r="E9" s="38">
+        <v>2</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="N9" s="7" t="s">
         <v>95</v>
       </c>
@@ -3666,174 +3795,442 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="A10" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="15">
+        <v>2</v>
+      </c>
+      <c r="E10" s="15">
+        <v>2</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="A11" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="15">
+        <v>3</v>
+      </c>
+      <c r="E11" s="15">
+        <v>2</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4</v>
+      </c>
+      <c r="E12" s="15">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="A13" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="15">
+        <v>5</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="15">
+        <v>6</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="A15" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="15">
+        <v>7</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="A16" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="15">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15">
+        <v>2</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="A18" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2</v>
+      </c>
+      <c r="E18" s="12">
+        <v>2</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="A19" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="12">
+        <v>3</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="A20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="12">
+        <v>4</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="A21" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="12">
+        <v>5</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="41">
+        <v>6</v>
+      </c>
+      <c r="E22" s="41">
+        <v>2</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="A23" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="12">
+        <v>7</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="A24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="12">
+        <v>8</v>
+      </c>
+      <c r="E24" s="12">
+        <v>2</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="A25" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="12">
+        <v>9</v>
+      </c>
+      <c r="E25" s="12">
+        <v>2</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="A26" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40">
+        <v>1</v>
+      </c>
+      <c r="E26" s="40">
+        <v>2</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>126</v>
+      </c>
       <c r="N26" s="7" t="s">
         <v>95</v>
       </c>
@@ -3845,107 +4242,250 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="A27" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="A28" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="9">
+        <v>3</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="A29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="9">
+        <v>4</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="A30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="9">
+        <v>5</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="A31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="9">
+        <v>6</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="A32" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="9">
+        <v>7</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="A33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="9">
+        <v>8</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="A34" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="9">
+        <v>9</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="C35" s="10"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27FFD82-9FC1-45FF-A306-3D9B749B3363}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3979,1582 +4519,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="16">
-        <v>2</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="16">
-        <v>2</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="16">
-        <v>2</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="A2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="16">
-        <v>2</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="16">
-        <v>2</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="16">
-        <v>2</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="16">
-        <v>2</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="16">
-        <v>2</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="16">
-        <v>2</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="16">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="16">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="16">
-        <v>1</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="16">
-        <v>1</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="16">
-        <v>1</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="17">
-        <v>2</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="17">
-        <v>2</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="17">
-        <v>2</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="17">
-        <v>2</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="17">
-        <v>2</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="17">
-        <v>2</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="17">
-        <v>2</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="17">
-        <v>2</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="17">
-        <v>2</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="17">
-        <v>1</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="17">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="17">
-        <v>1</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="17">
-        <v>1</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="17">
-        <v>1</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="17">
-        <v>1</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="17">
-        <v>1</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="17">
-        <v>1</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="17">
-        <v>1</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="31">
-        <v>2</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="31">
-        <v>2</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="31">
-        <v>2</v>
-      </c>
-      <c r="F40" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="31">
-        <v>2</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="31">
-        <v>2</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="31">
-        <v>2</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="31">
-        <v>2</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="31">
-        <v>2</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="31">
-        <v>2</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="31">
-        <v>2</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="31">
-        <v>2</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="31">
-        <v>1</v>
-      </c>
-      <c r="F49" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="31">
-        <v>1</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="31">
-        <v>1</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="31">
-        <v>1</v>
-      </c>
-      <c r="F52" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="31">
-        <v>1</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="31">
-        <v>1</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="31">
-        <v>1</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="31">
-        <v>1</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="31">
-        <v>1</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58" s="31">
-        <v>1</v>
-      </c>
-      <c r="F58" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="31">
-        <v>1</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E60" s="8">
-        <v>2</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="8">
-        <v>2</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="8">
-        <v>2</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="8">
-        <v>2</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="8">
-        <v>2</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="8">
-        <v>2</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" s="8">
-        <v>2</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E67" s="8">
-        <v>2</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" s="8">
-        <v>2</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E69" s="8">
-        <v>2</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E70" s="8">
-        <v>1</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E71" s="8">
-        <v>1</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" s="8">
-        <v>1</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" s="8">
-        <v>1</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E74" s="8">
-        <v>1</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" s="8">
-        <v>1</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E76" s="8">
-        <v>1</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77" s="8">
-        <v>1</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E78" s="8">
-        <v>1</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" s="8">
-        <v>1</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E80" s="8">
-        <v>1</v>
-      </c>
-      <c r="F80" s="8" t="s">
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8247,950 +7227,1624 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5920402C-1FB9-A943-A890-6C76360D8B3B}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="62.83203125" style="7"/>
-    <col min="14" max="14" width="23.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="62.83203125" style="7"/>
+    <col min="1" max="1" width="90.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="14" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="16">
+        <v>2</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="16">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="16">
+        <v>2</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="13">
-        <v>2</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="13">
-        <v>3</v>
-      </c>
-      <c r="E3" s="13">
-        <v>2</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="C20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="17">
+        <v>2</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="17">
+        <v>2</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="17">
+        <v>2</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="17">
+        <v>2</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="17">
+        <v>2</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="17">
+        <v>2</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="17">
+        <v>2</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="17">
+        <v>2</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="13">
-        <v>4</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="13">
-        <v>5</v>
-      </c>
-      <c r="E5" s="13">
-        <v>2</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="13">
-        <v>6</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="13">
-        <v>7</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="13">
-        <v>8</v>
-      </c>
-      <c r="E8" s="13">
-        <v>2</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="15">
-        <v>2</v>
-      </c>
-      <c r="E10" s="15">
-        <v>2</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="15">
-        <v>3</v>
-      </c>
-      <c r="E11" s="15">
-        <v>2</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="15">
-        <v>4</v>
-      </c>
-      <c r="E12" s="15">
-        <v>2</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D13" s="15">
-        <v>5</v>
-      </c>
-      <c r="E13" s="15">
-        <v>2</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14" s="15">
-        <v>6</v>
-      </c>
-      <c r="E14" s="15">
-        <v>2</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" s="15">
-        <v>7</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="15">
-        <v>8</v>
-      </c>
-      <c r="E16" s="15">
-        <v>2</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15">
-        <v>1</v>
-      </c>
-      <c r="E17" s="15">
-        <v>2</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="C28" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="17">
+        <v>2</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="17">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="17">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="17">
+        <v>1</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="17">
+        <v>1</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="17">
+        <v>1</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="31">
+        <v>2</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="31">
+        <v>2</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="31">
+        <v>2</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="31">
+        <v>2</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="31">
+        <v>2</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="31">
+        <v>2</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="31">
+        <v>2</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="31">
+        <v>2</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="31">
+        <v>2</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="31">
+        <v>2</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="31">
+        <v>2</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="31">
+        <v>1</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="31">
+        <v>1</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="31">
+        <v>1</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="31">
+        <v>1</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="31">
+        <v>1</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="31">
+        <v>1</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="31">
+        <v>1</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="31">
+        <v>1</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="31">
+        <v>1</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="31">
+        <v>1</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="31">
+        <v>1</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="12">
-        <v>2</v>
-      </c>
-      <c r="E18" s="12">
-        <v>2</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="C60" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="8">
+        <v>2</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="12">
-        <v>3</v>
-      </c>
-      <c r="E19" s="12">
-        <v>2</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="12" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="8">
+        <v>2</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" s="12" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="8">
+        <v>2</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="8">
+        <v>2</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="8">
+        <v>2</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="8">
+        <v>2</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="8">
+        <v>2</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="8">
+        <v>2</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="8">
+        <v>2</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="12">
-        <v>4</v>
-      </c>
-      <c r="E20" s="12">
-        <v>2</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="12" t="s">
+      <c r="C69" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="8">
+        <v>2</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="12">
-        <v>5</v>
-      </c>
-      <c r="E21" s="12">
-        <v>2</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" s="12" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="8">
+        <v>1</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="12">
-        <v>6</v>
-      </c>
-      <c r="E22" s="12">
-        <v>2</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" s="12" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="8">
+        <v>1</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="12">
-        <v>7</v>
-      </c>
-      <c r="E23" s="12">
-        <v>2</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="12" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="8">
+        <v>1</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="12">
-        <v>8</v>
-      </c>
-      <c r="E24" s="12">
-        <v>2</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" s="12" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="8">
+        <v>1</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" s="12">
-        <v>9</v>
-      </c>
-      <c r="E25" s="12">
-        <v>2</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H25" s="12" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="8">
+        <v>1</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12">
-        <v>1</v>
-      </c>
-      <c r="E26" s="12">
-        <v>2</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="12" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="8">
+        <v>1</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="N26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P26" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="9">
-        <v>2</v>
-      </c>
-      <c r="E27" s="9">
-        <v>2</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="9">
-        <v>3</v>
-      </c>
-      <c r="E28" s="9">
-        <v>2</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="9">
-        <v>4</v>
-      </c>
-      <c r="E29" s="9">
-        <v>2</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="9">
-        <v>5</v>
-      </c>
-      <c r="E30" s="9">
-        <v>2</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="9">
-        <v>6</v>
-      </c>
-      <c r="E31" s="9">
-        <v>2</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="9">
-        <v>7</v>
-      </c>
-      <c r="E32" s="9">
-        <v>2</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="9">
-        <v>8</v>
-      </c>
-      <c r="E33" s="9">
-        <v>2</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="9">
-        <v>9</v>
-      </c>
-      <c r="E34" s="9">
-        <v>2</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="9">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9">
-        <v>2</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>37</v>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="8">
+        <v>1</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="8">
+        <v>1</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="8">
+        <v>1</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="8">
+        <v>1</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="8">
+        <v>1</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Access_Desktop.suite/Resources/Regression_testdata.xlsx
+++ b/Access_Desktop.suite/Resources/Regression_testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suganthinatrajan/Eggplant_Testcases/Access_Desktop.suite/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25263FE0-CC99-3547-838D-491D6AAAA6F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1CBF01-4986-8442-BAA7-9C4AC135BBDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" activeTab="6" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="JSCompleteAppDef" sheetId="13" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId10"/>
     <sheet name="JSP1" sheetId="7" r:id="rId11"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId12"/>
+    <sheet name="CRF" sheetId="8" r:id="rId12"/>
     <sheet name="Sheet5" sheetId="9" r:id="rId13"/>
-    <sheet name="JS1" sheetId="10" r:id="rId14"/>
+    <sheet name="JS" sheetId="10" r:id="rId14"/>
     <sheet name="CP1" sheetId="11" r:id="rId15"/>
     <sheet name="CP_files" sheetId="12" r:id="rId16"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CR!$A$1:$K$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'JS-Full'!$A$1:$F$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JSCompleteAppDef!$A$1:$F$1</definedName>
   </definedNames>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3408" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="427">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -1239,9 +1240,6 @@
     <t>Job_Submission_DynamicAppDef_From_Includes_NewJob</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Profiles_Create_Profile_Complete_Default_Values </t>
   </si>
   <si>
@@ -1324,6 +1322,18 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>ClusterRegistration</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ShellScript</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -1977,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94FEDDC-F56F-544F-9FC4-0D373754D742}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2015,7 +2025,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -2027,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2035,7 +2045,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2047,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2055,7 +2065,7 @@
         <v>372</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -2067,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2075,7 +2085,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -2087,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2095,7 +2105,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -2107,7 +2117,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2115,7 +2125,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>64</v>
@@ -2127,15 +2137,15 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>31</v>
+      <c r="B8" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>70</v>
@@ -2147,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2155,7 +2165,7 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>67</v>
@@ -2167,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2175,7 +2185,7 @@
         <v>374</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
@@ -2187,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2195,7 +2205,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -2207,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2215,7 +2225,7 @@
         <v>375</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -2227,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2235,7 +2245,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -2247,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2255,7 +2265,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -2267,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2275,7 +2285,7 @@
         <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>64</v>
@@ -2287,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2295,7 +2305,7 @@
         <v>373</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>70</v>
@@ -2307,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2315,7 +2325,7 @@
         <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>67</v>
@@ -2327,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2335,7 +2345,7 @@
         <v>374</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>28</v>
@@ -2347,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -2594,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5920402C-1FB9-A943-A890-6C76360D8B3B}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2645,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2665,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2685,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2705,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2725,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2745,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2765,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2785,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2805,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2825,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2845,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2865,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2885,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2905,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2925,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2945,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2965,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2985,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3004,8 +3014,8 @@
       <c r="E20" s="16">
         <v>2</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>37</v>
+      <c r="F20" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3024,8 +3034,8 @@
       <c r="E21" s="16">
         <v>2</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>37</v>
+      <c r="F21" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3044,8 +3054,8 @@
       <c r="E22" s="16">
         <v>2</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>37</v>
+      <c r="F22" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3064,8 +3074,8 @@
       <c r="E23" s="16">
         <v>2</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>37</v>
+      <c r="F23" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3084,8 +3094,8 @@
       <c r="E24" s="16">
         <v>2</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>37</v>
+      <c r="F24" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3104,8 +3114,8 @@
       <c r="E25" s="16">
         <v>2</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>37</v>
+      <c r="F25" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3124,8 +3134,8 @@
       <c r="E26" s="16">
         <v>2</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>37</v>
+      <c r="F26" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3144,8 +3154,8 @@
       <c r="E27" s="16">
         <v>2</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>37</v>
+      <c r="F27" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3164,8 +3174,8 @@
       <c r="E28" s="16">
         <v>2</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>37</v>
+      <c r="F28" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3184,8 +3194,8 @@
       <c r="E29" s="16">
         <v>1</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>37</v>
+      <c r="F29" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3204,8 +3214,8 @@
       <c r="E30" s="16">
         <v>1</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>37</v>
+      <c r="F30" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3224,8 +3234,8 @@
       <c r="E31" s="16">
         <v>1</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>37</v>
+      <c r="F31" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3244,8 +3254,8 @@
       <c r="E32" s="16">
         <v>1</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>37</v>
+      <c r="F32" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3264,8 +3274,8 @@
       <c r="E33" s="16">
         <v>1</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>37</v>
+      <c r="F33" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3284,8 +3294,8 @@
       <c r="E34" s="16">
         <v>1</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>37</v>
+      <c r="F34" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3304,8 +3314,8 @@
       <c r="E35" s="16">
         <v>1</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>37</v>
+      <c r="F35" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3324,8 +3334,8 @@
       <c r="E36" s="16">
         <v>1</v>
       </c>
-      <c r="F36" s="16" t="s">
-        <v>37</v>
+      <c r="F36" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3344,8 +3354,8 @@
       <c r="E37" s="16">
         <v>1</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>37</v>
+      <c r="F37" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3364,8 +3374,8 @@
       <c r="E38" s="30">
         <v>2</v>
       </c>
-      <c r="F38" s="30" t="s">
-        <v>37</v>
+      <c r="F38" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3384,8 +3394,8 @@
       <c r="E39" s="30">
         <v>2</v>
       </c>
-      <c r="F39" s="30" t="s">
-        <v>37</v>
+      <c r="F39" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3404,8 +3414,8 @@
       <c r="E40" s="30">
         <v>2</v>
       </c>
-      <c r="F40" s="30" t="s">
-        <v>37</v>
+      <c r="F40" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3424,8 +3434,8 @@
       <c r="E41" s="30">
         <v>2</v>
       </c>
-      <c r="F41" s="30" t="s">
-        <v>37</v>
+      <c r="F41" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -3444,8 +3454,8 @@
       <c r="E42" s="30">
         <v>2</v>
       </c>
-      <c r="F42" s="30" t="s">
-        <v>37</v>
+      <c r="F42" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3464,8 +3474,8 @@
       <c r="E43" s="30">
         <v>2</v>
       </c>
-      <c r="F43" s="30" t="s">
-        <v>37</v>
+      <c r="F43" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3484,8 +3494,8 @@
       <c r="E44" s="30">
         <v>2</v>
       </c>
-      <c r="F44" s="30" t="s">
-        <v>37</v>
+      <c r="F44" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3504,8 +3514,8 @@
       <c r="E45" s="30">
         <v>2</v>
       </c>
-      <c r="F45" s="30" t="s">
-        <v>37</v>
+      <c r="F45" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3524,8 +3534,8 @@
       <c r="E46" s="30">
         <v>2</v>
       </c>
-      <c r="F46" s="30" t="s">
-        <v>37</v>
+      <c r="F46" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3544,8 +3554,8 @@
       <c r="E47" s="30">
         <v>2</v>
       </c>
-      <c r="F47" s="30" t="s">
-        <v>37</v>
+      <c r="F47" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3564,8 +3574,8 @@
       <c r="E48" s="30">
         <v>2</v>
       </c>
-      <c r="F48" s="30" t="s">
-        <v>37</v>
+      <c r="F48" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3584,8 +3594,8 @@
       <c r="E49" s="30">
         <v>1</v>
       </c>
-      <c r="F49" s="30" t="s">
-        <v>37</v>
+      <c r="F49" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3604,8 +3614,8 @@
       <c r="E50" s="30">
         <v>1</v>
       </c>
-      <c r="F50" s="30" t="s">
-        <v>37</v>
+      <c r="F50" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3624,8 +3634,8 @@
       <c r="E51" s="30">
         <v>1</v>
       </c>
-      <c r="F51" s="30" t="s">
-        <v>37</v>
+      <c r="F51" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3644,8 +3654,8 @@
       <c r="E52" s="30">
         <v>1</v>
       </c>
-      <c r="F52" s="30" t="s">
-        <v>37</v>
+      <c r="F52" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3664,8 +3674,8 @@
       <c r="E53" s="30">
         <v>1</v>
       </c>
-      <c r="F53" s="30" t="s">
-        <v>37</v>
+      <c r="F53" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3684,8 +3694,8 @@
       <c r="E54" s="30">
         <v>1</v>
       </c>
-      <c r="F54" s="30" t="s">
-        <v>37</v>
+      <c r="F54" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3704,8 +3714,8 @@
       <c r="E55" s="30">
         <v>1</v>
       </c>
-      <c r="F55" s="30" t="s">
-        <v>37</v>
+      <c r="F55" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -3724,8 +3734,8 @@
       <c r="E56" s="30">
         <v>1</v>
       </c>
-      <c r="F56" s="30" t="s">
-        <v>37</v>
+      <c r="F56" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -3744,8 +3754,8 @@
       <c r="E57" s="30">
         <v>1</v>
       </c>
-      <c r="F57" s="30" t="s">
-        <v>37</v>
+      <c r="F57" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3764,8 +3774,8 @@
       <c r="E58" s="30">
         <v>1</v>
       </c>
-      <c r="F58" s="30" t="s">
-        <v>37</v>
+      <c r="F58" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -3784,8 +3794,8 @@
       <c r="E59" s="30">
         <v>1</v>
       </c>
-      <c r="F59" s="30" t="s">
-        <v>37</v>
+      <c r="F59" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -3804,7 +3814,7 @@
       <c r="E60" s="8">
         <v>2</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3824,7 +3834,7 @@
       <c r="E61" s="8">
         <v>2</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3844,7 +3854,7 @@
       <c r="E62" s="8">
         <v>2</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3864,7 +3874,7 @@
       <c r="E63" s="8">
         <v>2</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3884,7 +3894,7 @@
       <c r="E64" s="8">
         <v>2</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3904,7 +3914,7 @@
       <c r="E65" s="8">
         <v>2</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3924,7 +3934,7 @@
       <c r="E66" s="8">
         <v>2</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3944,7 +3954,7 @@
       <c r="E67" s="8">
         <v>2</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3964,7 +3974,7 @@
       <c r="E68" s="8">
         <v>2</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3984,7 +3994,7 @@
       <c r="E69" s="8">
         <v>2</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4004,7 +4014,7 @@
       <c r="E70" s="8">
         <v>1</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4024,7 +4034,7 @@
       <c r="E71" s="8">
         <v>1</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4044,7 +4054,7 @@
       <c r="E72" s="8">
         <v>1</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4064,7 +4074,7 @@
       <c r="E73" s="8">
         <v>1</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4084,7 +4094,7 @@
       <c r="E74" s="8">
         <v>1</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4104,7 +4114,7 @@
       <c r="E75" s="8">
         <v>1</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4124,7 +4134,7 @@
       <c r="E76" s="8">
         <v>1</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4144,7 +4154,7 @@
       <c r="E77" s="8">
         <v>1</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4164,7 +4174,7 @@
       <c r="E78" s="8">
         <v>1</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4184,7 +4194,7 @@
       <c r="E79" s="8">
         <v>1</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4204,7 +4214,7 @@
       <c r="E80" s="8">
         <v>1</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4219,20 +4229,20 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.5" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4301,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -4336,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -4369,10 +4379,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -4404,10 +4414,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -4439,10 +4449,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -4474,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -4509,10 +4519,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4544,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -4579,10 +4589,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -4612,10 +4622,10 @@
         <v>2</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -4647,10 +4657,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -4682,10 +4692,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4717,10 +4727,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -4750,10 +4760,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -4785,10 +4795,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -4820,10 +4830,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -4855,10 +4865,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="N18" t="s">
         <v>367</v>
@@ -4891,10 +4901,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -4926,10 +4936,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -4961,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -4995,10 +5005,10 @@
       <c r="I22" s="15">
         <v>0</v>
       </c>
-      <c r="J22" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="J22" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K22" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5030,10 +5040,10 @@
       <c r="I23" s="15">
         <v>0</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K23" s="15" t="s">
+      <c r="J23" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K23" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5063,10 +5073,10 @@
       <c r="I24" s="15">
         <v>2</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K24" s="15" t="s">
+      <c r="J24" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K24" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5098,10 +5108,10 @@
       <c r="I25" s="15">
         <v>0</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K25" s="15" t="s">
+      <c r="J25" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K25" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5133,10 +5143,10 @@
       <c r="I26" s="15">
         <v>0</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K26" s="15" t="s">
+      <c r="J26" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K26" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5168,10 +5178,10 @@
       <c r="I27" s="15">
         <v>1</v>
       </c>
-      <c r="J27" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K27" s="15" t="s">
+      <c r="J27" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K27" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5203,10 +5213,10 @@
       <c r="I28" s="15">
         <v>0</v>
       </c>
-      <c r="J28" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K28" s="15" t="s">
+      <c r="J28" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K28" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5238,10 +5248,10 @@
       <c r="I29" s="15">
         <v>0</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K29" s="15" t="s">
+      <c r="J29" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K29" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5271,10 +5281,10 @@
       <c r="I30" s="15">
         <v>2</v>
       </c>
-      <c r="J30" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K30" s="15" t="s">
+      <c r="J30" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K30" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5306,10 +5316,10 @@
       <c r="I31" s="15">
         <v>1</v>
       </c>
-      <c r="J31" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K31" s="15" t="s">
+      <c r="J31" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K31" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5341,10 +5351,10 @@
       <c r="I32" s="15">
         <v>0</v>
       </c>
-      <c r="J32" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K32" s="15" t="s">
+      <c r="J32" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K32" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5376,10 +5386,10 @@
       <c r="I33" s="15">
         <v>0</v>
       </c>
-      <c r="J33" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K33" s="15" t="s">
+      <c r="J33" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K33" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5409,10 +5419,10 @@
       <c r="I34" s="15">
         <v>2</v>
       </c>
-      <c r="J34" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K34" s="15" t="s">
+      <c r="J34" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K34" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5444,10 +5454,10 @@
       <c r="I35" s="15">
         <v>1</v>
       </c>
-      <c r="J35" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K35" s="15" t="s">
+      <c r="J35" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K35" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5479,10 +5489,10 @@
       <c r="I36" s="15">
         <v>0</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K36" s="15" t="s">
+      <c r="J36" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K36" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5514,10 +5524,10 @@
       <c r="I37" s="15">
         <v>0</v>
       </c>
-      <c r="J37" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K37" s="15" t="s">
+      <c r="J37" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K37" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5547,10 +5557,10 @@
       <c r="I38" s="15">
         <v>2</v>
       </c>
-      <c r="J38" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K38" s="15" t="s">
+      <c r="J38" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K38" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5582,10 +5592,10 @@
       <c r="I39" s="15">
         <v>1</v>
       </c>
-      <c r="J39" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K39" s="15" t="s">
+      <c r="J39" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K39" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5617,11 +5627,11 @@
       <c r="I40" s="10">
         <v>0</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>37</v>
+      <c r="J40" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -5650,11 +5660,11 @@
       <c r="I41" s="10">
         <v>1</v>
       </c>
-      <c r="J41" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>37</v>
+      <c r="J41" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -5685,11 +5695,11 @@
       <c r="I42" s="10">
         <v>1</v>
       </c>
-      <c r="J42" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>37</v>
+      <c r="J42" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -5720,11 +5730,11 @@
       <c r="I43" s="10">
         <v>1</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>37</v>
+      <c r="J43" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -5755,11 +5765,11 @@
       <c r="I44" s="10">
         <v>1</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>37</v>
+      <c r="J44" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -5790,11 +5800,11 @@
       <c r="I45" s="10">
         <v>0</v>
       </c>
-      <c r="J45" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>37</v>
+      <c r="J45" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -5825,11 +5835,11 @@
       <c r="I46" s="10">
         <v>0</v>
       </c>
-      <c r="J46" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>37</v>
+      <c r="J46" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -5858,11 +5868,11 @@
       <c r="I47" s="10">
         <v>0</v>
       </c>
-      <c r="J47" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>37</v>
+      <c r="J47" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -5893,11 +5903,11 @@
       <c r="I48" s="10">
         <v>1</v>
       </c>
-      <c r="J48" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>37</v>
+      <c r="J48" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -5928,11 +5938,11 @@
       <c r="I49" s="10">
         <v>0</v>
       </c>
-      <c r="J49" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>37</v>
+      <c r="J49" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -5963,11 +5973,11 @@
       <c r="I50" s="10">
         <v>0</v>
       </c>
-      <c r="J50" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>37</v>
+      <c r="J50" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -5996,11 +6006,11 @@
       <c r="I51" s="10">
         <v>0</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>37</v>
+      <c r="J51" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -6031,11 +6041,11 @@
       <c r="I52" s="10">
         <v>0</v>
       </c>
-      <c r="J52" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>37</v>
+      <c r="J52" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -6066,11 +6076,11 @@
       <c r="I53" s="10">
         <v>0</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>37</v>
+      <c r="J53" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -6099,11 +6109,11 @@
       <c r="I54" s="10">
         <v>0</v>
       </c>
-      <c r="J54" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>37</v>
+      <c r="J54" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -6134,11 +6144,11 @@
       <c r="I55" s="10">
         <v>1</v>
       </c>
-      <c r="J55" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>37</v>
+      <c r="J55" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -8101,7 +8111,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F35"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8134,794 +8144,794 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="29">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="29">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="29">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="29">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="29">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="29">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="29">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="29">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="29">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="29">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="29">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="29">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="29">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="29">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="29">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="29">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="29">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="29">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="23">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="E23" s="23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="23">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="E24" s="23">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="23">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="E25" s="23">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="23">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="E26" s="23">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="23">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="E27" s="23">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="B28" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D28" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="33">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="E28" s="33">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="39" t="s">
+      <c r="B29" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C29" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D29" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="40">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="E29" s="40">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="23">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="E30" s="23">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="23">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="E31" s="23">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="23">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="E32" s="23">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="23">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="E33" s="23">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="23">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="E34" s="23">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="E35" s="23">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="23">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="E36" s="23">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="38" t="s">
+      <c r="B37" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C37" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D37" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="41">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="E37" s="41">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="23">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="E38" s="23">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B39" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="23">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="E39" s="23">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="24">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="24">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="24">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="24">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="24">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="24">
-        <v>2</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="24">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="24">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="24">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="24">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="24">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="24">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="24">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="35">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="24">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="24">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="24">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="25">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="26">
-        <v>2</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="26">
-        <v>2</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="26">
-        <v>2</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="26">
-        <v>2</v>
+      <c r="E40" s="25">
+        <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>423</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>33</v>
@@ -8930,18 +8940,18 @@
         <v>2</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>33</v>
@@ -8950,18 +8960,18 @@
         <v>2</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>381</v>
+        <v>57</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>33</v>
@@ -8970,18 +8980,18 @@
         <v>2</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="36" t="s">
-        <v>73</v>
+      <c r="A44" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>33</v>
@@ -8990,18 +9000,18 @@
         <v>2</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>33</v>
@@ -9010,18 +9020,18 @@
         <v>2</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>33</v>
@@ -9030,98 +9040,98 @@
         <v>2</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E47" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>383</v>
+      <c r="A48" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E48" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E49" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>382</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E50" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>33</v>
@@ -9130,18 +9140,18 @@
         <v>1</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>33</v>
@@ -9150,18 +9160,18 @@
         <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>384</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>33</v>
@@ -9170,18 +9180,18 @@
         <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>33</v>
@@ -9190,18 +9200,18 @@
         <v>1</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>33</v>
@@ -9210,18 +9220,18 @@
         <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>33</v>
@@ -9230,427 +9240,427 @@
         <v>1</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="28" t="s">
+      <c r="A57" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="26">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="26">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="26">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="26">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="29">
-        <v>2</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="28" t="s">
+      <c r="D61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="24">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58" s="29">
-        <v>2</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="28" t="s">
+      <c r="D62" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="24">
+        <v>2</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="29">
-        <v>2</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="28" t="s">
+      <c r="D63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="24">
+        <v>2</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="29">
-        <v>2</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="28" t="s">
+      <c r="D64" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="24">
+        <v>2</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" s="29">
-        <v>2</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" s="29">
-        <v>2</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63" s="29">
-        <v>2</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="28" t="s">
+      <c r="D65" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="24">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="24">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="29">
-        <v>2</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="28" t="s">
+      <c r="D67" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="24">
+        <v>2</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="24">
+        <v>2</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="24">
+        <v>2</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="24">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="24">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="24">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" s="24">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="35">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="29">
-        <v>2</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="28" t="s">
+      <c r="D75" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="24">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E66" s="29">
-        <v>2</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="28" t="s">
+      <c r="D76" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" s="24">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="29">
-        <v>2</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E68" s="29">
-        <v>1</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D69" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E69" s="29">
-        <v>1</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" s="29">
-        <v>1</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E71" s="29">
-        <v>1</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72" s="29">
-        <v>1</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E73" s="29">
-        <v>1</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E74" s="29">
-        <v>1</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E75" s="29">
-        <v>1</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E76" s="29">
-        <v>1</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="B77" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E77" s="29">
+      <c r="D77" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" s="24">
         <v>1</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -9711,7 +9721,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>31</v>
@@ -9726,7 +9736,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>178</v>
@@ -9737,13 +9747,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D3" s="13">
         <v>3</v>
@@ -9752,7 +9762,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>178</v>
@@ -9763,7 +9773,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>31</v>
@@ -9778,7 +9788,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>178</v>
@@ -9789,13 +9799,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" s="13">
         <v>5</v>
@@ -9804,7 +9814,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>178</v>
@@ -9815,13 +9825,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D6" s="13">
         <v>6</v>
@@ -9830,7 +9840,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>178</v>
@@ -9841,13 +9851,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D7" s="13">
         <v>7</v>
@@ -9856,7 +9866,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>178</v>
@@ -9867,13 +9877,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D8" s="13">
         <v>8</v>
@@ -9882,7 +9892,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>178</v>
@@ -9893,7 +9903,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>31</v>
@@ -9926,7 +9936,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>47</v>
@@ -9941,7 +9951,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>178</v>
@@ -9952,13 +9962,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D11" s="14">
         <v>3</v>
@@ -9967,7 +9977,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>178</v>
@@ -9978,7 +9988,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>47</v>
@@ -9993,7 +10003,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>178</v>
@@ -10613,7 +10623,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10661,7 +10671,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>47</v>
@@ -10676,7 +10686,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>178</v>
@@ -10687,7 +10697,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>31</v>
@@ -10702,7 +10712,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>178</v>
@@ -10713,7 +10723,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>47</v>
@@ -10728,7 +10738,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>178</v>
@@ -10739,7 +10749,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>31</v>
@@ -10754,7 +10764,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>178</v>
@@ -10877,11 +10887,12 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="76.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
@@ -11339,7 +11350,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11801,10 +11812,13 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -11843,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -11863,7 +11877,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -11883,7 +11897,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -11903,7 +11917,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -11923,7 +11937,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -11943,7 +11957,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -11963,7 +11977,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -11983,7 +11997,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -12003,7 +12017,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -12023,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -12043,7 +12057,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -12063,7 +12077,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -12083,7 +12097,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -12103,7 +12117,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -12123,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -12143,7 +12157,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -12163,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -13196,10 +13210,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D738776A-5825-42F9-9F09-6439114E8738}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13246,28 +13260,210 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="14">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14">
+        <v>2</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="14">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="9">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9">
-        <v>2</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H6" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>126</v>
       </c>
     </row>
@@ -13279,23 +13475,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0063960F-DC2E-4A0A-AB00-73E69C7813D4}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -13364,10 +13560,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -13399,10 +13595,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -13432,10 +13628,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -13467,10 +13663,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -13502,10 +13698,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -13537,10 +13733,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -13572,10 +13768,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -13607,10 +13803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -13642,10 +13838,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -13675,10 +13871,10 @@
         <v>2</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -13710,10 +13906,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -13745,10 +13941,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -13780,10 +13976,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -13813,10 +14009,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -13839,7 +14035,7 @@
         <v>368</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>311</v>
@@ -13848,10 +14044,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -13883,10 +14079,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -13918,10 +14114,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
       <c r="N18" t="s">
         <v>367</v>
@@ -13954,10 +14150,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -13989,10 +14185,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -14024,17 +14220,1195 @@
         <v>0</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="K21" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I24" s="15">
+        <v>2</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I27" s="15">
+        <v>1</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I30" s="15">
+        <v>2</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I31" s="15">
+        <v>1</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I32" s="15">
+        <v>0</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I34" s="15">
+        <v>2</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I35" s="15">
+        <v>1</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I36" s="15">
+        <v>0</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I38" s="15">
+        <v>2</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I39" s="15">
+        <v>1</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I41" s="10">
+        <v>1</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I42" s="10">
+        <v>1</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I43" s="10">
+        <v>1</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I44" s="10">
+        <v>1</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I48" s="10">
+        <v>1</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0</v>
+      </c>
+      <c r="J52" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I54" s="10">
+        <v>0</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I55" s="10">
+        <v>1</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K55" s="22" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="SLES@Node" xr:uid="{C92F6570-8ADF-48FE-9E3D-FB1B8A983D02}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{DC7D257E-63F2-47BF-BDB5-B722EB6CD07F}"/>
-    <hyperlink ref="G21" r:id="rId3" xr:uid="{CAEC813F-9C6E-470D-A51B-3B0F19950971}"/>
+    <hyperlink ref="B7" r:id="rId1" display="SLES@Node" xr:uid="{F8E8E286-BD47-8C49-B8EC-3A3670A04A81}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{7A45B52F-D255-AA44-ADC2-4B177A34E74D}"/>
+    <hyperlink ref="G21" r:id="rId3" xr:uid="{D455A98A-06D8-3A40-B510-1CD91ED05C6F}"/>
+    <hyperlink ref="B26" r:id="rId4" display="SLES@Node" xr:uid="{1B57FBD4-D125-5B46-B6B6-9F4AC5C123B7}"/>
+    <hyperlink ref="B27" r:id="rId5" xr:uid="{F88CE867-6E80-0340-9439-7926E4B47D47}"/>
+    <hyperlink ref="B43" r:id="rId6" display="SLES@Node" xr:uid="{D77E2602-B41A-9D4C-81A9-BF1B183ACE7E}"/>
+    <hyperlink ref="B44" r:id="rId7" xr:uid="{8140DDD8-B852-5A41-9E90-4D34ED72C12F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14046,7 +15420,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
